--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1412096.258034446</v>
+        <v>-1414577.177859905</v>
       </c>
     </row>
     <row r="7">
@@ -1370,25 +1370,25 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579952</v>
+        <v>14.65678318579944</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104932</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>165.2353083685884</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>76.72383115535632</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39.10798566123778</v>
       </c>
       <c r="C13" t="n">
-        <v>53.12621925938255</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271158</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292082</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1585,13 +1585,13 @@
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1607,25 +1607,25 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>137.2096216256467</v>
+        <v>138.6532172799876</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689271</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,19 +1765,19 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>110.4374496699653</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271943</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1819,16 +1819,16 @@
         <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>153.1163531798114</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649683</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>97.90474570419508</v>
       </c>
       <c r="V17" t="n">
-        <v>196.1505424627078</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249326</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085007</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860169</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.457137204119</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432823</v>
+        <v>77.43656365929057</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>240.6420543130729</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>52.97552838455594</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>196.1505424627069</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>155.7512320878713</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,16 +2293,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>240.642054313072</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085015</v>
+        <v>134.9383736358126</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2734363206857</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007073</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307968</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383218</v>
       </c>
       <c r="C37" t="n">
-        <v>111.7690391349167</v>
+        <v>69.56210087052271</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010723</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846405</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482612</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309231</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621566</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.53923808266185</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>120.5216066929737</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
         <v>50.93075279010741</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>163.106871388383</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>93.13769105450123</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>43.53923808266006</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.3541982182262</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>91.27556587748705</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>188.838278108486</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1884.43143472439</v>
+        <v>1771.029130326015</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.660985043702</v>
+        <v>1429.258680645327</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696675</v>
+        <v>1098.1850492983</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581546</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1973308282708</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299098</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299098</v>
+        <v>81.31694793299093</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3099.267412142729</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2932.363060255266</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2606.786472244876</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2606.786472244876</v>
+        <v>2130.436903130413</v>
       </c>
       <c r="Y11" t="n">
-        <v>2243.839207528788</v>
+        <v>2130.436903130413</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>572.7690351314523</v>
+        <v>760.7584402581838</v>
       </c>
       <c r="C13" t="n">
-        <v>519.1061873947021</v>
+        <v>619.0143245900006</v>
       </c>
       <c r="D13" t="n">
-        <v>396.1816152420902</v>
+        <v>496.0897524373887</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420902</v>
+        <v>375.3687261147193</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420902</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541143</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5224,7 +5224,7 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
         <v>1718.795353991585</v>
@@ -5233,16 +5233,16 @@
         <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430789</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535523</v>
+        <v>1194.659451599716</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152586</v>
+        <v>993.8619679614222</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314523</v>
+        <v>800.2614560776159</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1808.944505008065</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="C14" t="n">
-        <v>1467.174055327377</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327377</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589723</v>
+        <v>739.5888639597798</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636925</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.316947932991</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.16881092955</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3016.16881092955</v>
+        <v>3021.735001525324</v>
       </c>
       <c r="W14" t="n">
-        <v>2877.573233529907</v>
+        <v>2881.681246697053</v>
       </c>
       <c r="X14" t="n">
-        <v>2531.299542528551</v>
+        <v>2535.407555695697</v>
       </c>
       <c r="Y14" t="n">
-        <v>2168.352277812463</v>
+        <v>2172.460290979609</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.2234371755693</v>
+        <v>588.5131473110118</v>
       </c>
       <c r="C16" t="n">
-        <v>680.2234371755693</v>
+        <v>446.7690316428286</v>
       </c>
       <c r="D16" t="n">
-        <v>557.2988650229572</v>
+        <v>446.7690316428286</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583458</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201591</v>
+        <v>326.0480053201593</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1718.795353991586</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.302933045422</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.077830268185</v>
+        <v>1137.367540403628</v>
       </c>
       <c r="X16" t="n">
-        <v>1028.280346629892</v>
+        <v>936.5700567653341</v>
       </c>
       <c r="Y16" t="n">
-        <v>834.6798347460854</v>
+        <v>742.9695448815278</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934036</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
         <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446356</v>
+        <v>966.228971144636</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628251</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,49 +5513,49 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="V17" t="n">
-        <v>2781.600168344273</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344273</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.77611029099</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y17" t="n">
         <v>2167.278478522976</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671181</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625795</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879834</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.196093406041</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1849.075796917492</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356241</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454038</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1685.889073215091</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1391.568256482476</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>1107.944258083523</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446366</v>
+        <v>796.7977056930753</v>
       </c>
       <c r="F20" t="n">
-        <v>629.884766562826</v>
+        <v>460.4535011112647</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>120.0227511640581</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>3146.717045090804</v>
       </c>
       <c r="V20" t="n">
-        <v>2979.732029417716</v>
+        <v>2890.29585795503</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344275</v>
+        <v>2612.168902892713</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290992</v>
+        <v>2313.34484483943</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522977</v>
+        <v>1997.847213071416</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872285</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671185</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625798</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356247</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454043</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096712</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
@@ -5978,61 +5978,61 @@
         <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018608</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>763.4819084917071</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1748.04802641204</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2294.826843470822</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2797.799314350159</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3192.573680707337</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6084,10 +6084,10 @@
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923639</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
         <v>2571.774827516155</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>639.0174115138534</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>544.7229287937434</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>469.2479895892047</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342413</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>892.1750550720292</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>746.0241761362961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697162</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6254,7 +6254,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805549</v>
@@ -6324,7 +6324,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960326</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991701</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890166</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1394.992678104635</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.68494470935</v>
+        <v>1928.524582776559</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768132</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805549</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6537,22 +6537,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973141</v>
@@ -6631,40 +6631,40 @@
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.524582776559</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.303399835341</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O32" t="n">
         <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6868,13 +6868,13 @@
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
         <v>765.151745215813</v>
@@ -7059,7 +7059,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127577</v>
+        <v>499.585072998746</v>
       </c>
       <c r="C37" t="n">
-        <v>628.008951184559</v>
+        <v>429.3203246446827</v>
       </c>
       <c r="D37" t="n">
-        <v>576.5637463460668</v>
+        <v>377.8751198061905</v>
       </c>
       <c r="E37" t="n">
-        <v>428.6506527636736</v>
+        <v>328.633460797641</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>280.4149478735742</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>211.3835458221367</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1883.315519722167</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1691.629635548994</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1469.863020118519</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1279.431587818007</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1024.74709961212</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>834.0013641490025</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>704.6832478248286</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691539</v>
+        <v>582.5621032551421</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7175,7 +7175,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7217,7 +7217,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7269,7 +7269,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225983</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
         <v>331.9946474630289</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515703</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.567105309816</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>886.8213698466988</v>
+        <v>877.9803925153274</v>
       </c>
       <c r="X40" t="n">
-        <v>757.5032535225248</v>
+        <v>649.99084161731</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.7106743789947</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7439,22 +7439,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7506,10 +7506,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866012</v>
+        <v>598.2565075725905</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325377</v>
+        <v>527.991759218527</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>476.5465543800347</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>427.304895371485</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>379.086382447418</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1883.315519722169</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1691.629635548995</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1469.863020118521</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1279.431587818008</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1123.418534185965</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>932.6727987228476</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>803.3546823986736</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429974</v>
+        <v>681.2335378289869</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,10 +7631,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495727</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7676,7 +7676,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7743,10 +7743,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>796.9451341124659</v>
+        <v>740.9069705127577</v>
       </c>
       <c r="C46" t="n">
-        <v>628.008951184559</v>
+        <v>670.6422221586942</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722233</v>
+        <v>619.1970173202019</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898301</v>
+        <v>569.9553583116523</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7840,16 +7840,16 @@
         <v>1520.753485332018</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429974</v>
+        <v>823.8840007691539</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843063</v>
+        <v>157.2353108430626</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729006</v>
+        <v>184.4039433729001</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389602</v>
+        <v>191.4948909389595</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333065</v>
+        <v>181.0856325333058</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830238</v>
+        <v>179.3553748830231</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383988</v>
+        <v>182.8301554383981</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586583</v>
+        <v>190.8908035586577</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266123</v>
+        <v>192.0103836266118</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875971</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372532</v>
+        <v>113.6031223372528</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672272</v>
+        <v>105.9629718672268</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253591</v>
+        <v>104.1013981253586</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677635</v>
+        <v>92.30246558677578</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359734</v>
+        <v>106.8829608359729</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798322</v>
+        <v>105.3113487798318</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615457</v>
+        <v>120.8212784615454</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564657</v>
+        <v>116.1755252564654</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.4284123140774</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.6694600530921</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662701</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784349</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>105.0013903333789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>124.5185911550077</v>
       </c>
       <c r="P26" t="n">
-        <v>277.220684154416</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>343.5485285966315</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>343.5485285966313</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>306.6874953089271</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010494</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>135.59680351442</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>266.0871229359862</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>113.803847933573</v>
       </c>
       <c r="C13" t="n">
-        <v>87.20045525211883</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>185.1112005046399</v>
+        <v>183.6676048502989</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>9.076366389477425</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>106.4864985696531</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>79.19514304898792</v>
       </c>
       <c r="V17" t="n">
-        <v>57.70643280170807</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>167.7369527970455</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>79.19514304898709</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>204819.0846792596</v>
       </c>
       <c r="D2" t="n">
-        <v>204824.6674514866</v>
+        <v>204824.6674514865</v>
       </c>
       <c r="E2" t="n">
         <v>182385.0002262436</v>
       </c>
       <c r="F2" t="n">
-        <v>182385.0002262437</v>
+        <v>182385.0002262435</v>
       </c>
       <c r="G2" t="n">
         <v>198632.7053116343</v>
       </c>
       <c r="H2" t="n">
-        <v>198632.7053116343</v>
+        <v>198632.705311634</v>
       </c>
       <c r="I2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="J2" t="n">
+        <v>205260.4424660706</v>
+      </c>
+      <c r="K2" t="n">
+        <v>205260.4424660706</v>
+      </c>
+      <c r="L2" t="n">
         <v>205260.4424660708</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>205260.4424660708</v>
-      </c>
-      <c r="K2" t="n">
-        <v>205260.4424660708</v>
-      </c>
-      <c r="L2" t="n">
-        <v>205260.4424660705</v>
-      </c>
-      <c r="M2" t="n">
-        <v>205260.4424660707</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552315</v>
+        <v>59764.553675524</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487428</v>
+        <v>37580.10929487398</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983346</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
         <v>25409.43302179701</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487412</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927241</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954649</v>
+        <v>430603.4278954646</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364979</v>
+        <v>40024.16194364983</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364979</v>
+        <v>40024.16194364984</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509204</v>
+        <v>77052.32230509198</v>
       </c>
       <c r="H4" t="n">
         <v>77052.32230509201</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754392</v>
+        <v>90617.51027754386</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.9551969959</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699581</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.9551969959</v>
+        <v>88960.95519699596</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818182</v>
       </c>
       <c r="N4" t="n">
         <v>92183.89891818172</v>
       </c>
       <c r="O4" t="n">
-        <v>92183.89891818179</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="P4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818177</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186637</v>
+        <v>35148.90543186639</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26506,7 +26506,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281208.5058697055</v>
+        <v>-281212.9194475737</v>
       </c>
       <c r="C6" t="n">
-        <v>-281208.5058697055</v>
+        <v>-281212.9194475737</v>
       </c>
       <c r="D6" t="n">
-        <v>-320692.2195513679</v>
+        <v>-320696.5773015143</v>
       </c>
       <c r="E6" t="n">
-        <v>-1023447.624245864</v>
+        <v>-1023676.378668262</v>
       </c>
       <c r="F6" t="n">
-        <v>65791.34791776745</v>
+        <v>65562.59349536903</v>
       </c>
       <c r="G6" t="n">
-        <v>3481.630586453073</v>
+        <v>3415.353214909084</v>
       </c>
       <c r="H6" t="n">
-        <v>41061.73988132738</v>
+        <v>40995.46250978277</v>
       </c>
       <c r="I6" t="n">
-        <v>6084.936056851351</v>
+        <v>6084.936056851293</v>
       </c>
       <c r="J6" t="n">
-        <v>1512.112572471786</v>
+        <v>1512.112572471582</v>
       </c>
       <c r="K6" t="n">
-        <v>26921.54559426883</v>
+        <v>26921.54559426862</v>
       </c>
       <c r="L6" t="n">
-        <v>-10658.56370060568</v>
+        <v>-10658.56370060533</v>
       </c>
       <c r="M6" t="n">
         <v>-171610.153751085</v>
       </c>
       <c r="N6" t="n">
-        <v>30557.94624163926</v>
+        <v>30557.94624163944</v>
       </c>
       <c r="O6" t="n">
-        <v>30557.94624163909</v>
+        <v>30557.94624163932</v>
       </c>
       <c r="P6" t="n">
-        <v>30557.94624163913</v>
+        <v>30557.94624163919</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="N2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810502</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790685</v>
+        <v>69.78465283790783</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951253</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790685</v>
+        <v>69.78465283790783</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
         <v>97.11452592758485</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959704</v>
+        <v>648.4664495959703</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.2465643780171</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672103</v>
+        <v>84.22861846672096</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987511</v>
+        <v>90.83829126987499</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519079</v>
+        <v>84.46220888519066</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990243</v>
+        <v>7.649035050990037</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317045</v>
+        <v>75.62456067317031</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712651</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075677</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>11.49558901075505</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075656</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>11.49558901075596</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075659</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>11.49558901075622</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859378</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859398</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="32">
@@ -29940,7 +29940,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859199</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
         <v>46.97513661859259</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="C37" t="n">
-        <v>55.47778196371118</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>45.39291458738549</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810512</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810512</v>
       </c>
     </row>
     <row r="38">
@@ -30381,7 +30381,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>46.72521440565413</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
         <v>97.68472022810495</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>55.47778196371181</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>45.39291458738729</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>54.14548214544419</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30912,7 +30912,7 @@
         <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>97.68472022810502</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413339</v>
+        <v>0.2805413179413378</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366686</v>
+        <v>2.873093772366726</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993328</v>
+        <v>10.81556915993344</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362331</v>
+        <v>23.81059368362364</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207997</v>
+        <v>35.68590767208048</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102708</v>
+        <v>44.2715240310277</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396627</v>
+        <v>49.26060069396696</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356709</v>
+        <v>50.05768871356779</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328795</v>
+        <v>47.26805598328861</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661126</v>
+        <v>40.34219219661183</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783724</v>
+        <v>30.29530624783766</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313233</v>
+        <v>17.62255356313258</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588152</v>
+        <v>6.392835282588242</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288189</v>
+        <v>1.228069619288207</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353067</v>
+        <v>0.02244330543530702</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796487</v>
+        <v>0.1501028381796508</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840292</v>
+        <v>1.449677410840312</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694046</v>
+        <v>5.168014384694119</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906935</v>
+        <v>14.18142647906955</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710582</v>
+        <v>24.23831663710616</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264697</v>
+        <v>32.59140791264743</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665923</v>
+        <v>38.03263579665976</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655696</v>
+        <v>39.03924649655752</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847107</v>
+        <v>35.71328360847156</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449801</v>
+        <v>28.66305863449841</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447586</v>
+        <v>19.16049562447613</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768017</v>
+        <v>9.319542882768147</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608824</v>
+        <v>2.788094384608863</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890223</v>
+        <v>0.6050197731890309</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345313</v>
+        <v>0.009875186722345452</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486845</v>
+        <v>0.1258411772486862</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811032</v>
+        <v>1.118842466811047</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078621</v>
+        <v>3.784387403078675</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481992</v>
+        <v>8.896971231482116</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489261</v>
+        <v>14.62045677489282</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247726</v>
+        <v>18.70915102477286</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908242</v>
+        <v>19.72617653908269</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115552</v>
+        <v>19.25713215115579</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875042</v>
+        <v>17.78707839875068</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287725</v>
+        <v>15.21991838287746</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852393</v>
+        <v>10.53748257852408</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381757</v>
+        <v>5.658276933381836</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233891</v>
+        <v>2.193068516233922</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625607</v>
+        <v>0.5376850300625683</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564615</v>
+        <v>0.006864064213564712</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33989,10 +33989,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34226,7 +34226,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34463,7 +34463,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987486</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019273</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086614</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>355.7956951370983</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>632.5715920432267</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737876</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636241</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165998</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237181</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>799.1386429889634</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412337</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>882.4696444268578</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>814.7404961971461</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.832082786132</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127271</v>
